--- a/study-data.xlsx
+++ b/study-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Studium\Semester\7-Semester\Bachelorarbeit\Ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3142058C-D39D-4F24-8D40-790E89B10390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED291E-C478-4B7F-B853-CA1697149EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB0FC4BB-E257-4BFF-9146-489D7EA4ADA4}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Auswertung Daten'!$X$3:$AB$41</definedName>
     <definedName name="age">'Auswertung Daten'!$R$4:$R$15</definedName>
     <definedName name="id">'Auswertung Daten'!$Q$4:$Q$15</definedName>
     <definedName name="Proband">'Auswertung Daten'!$Q$4:$U$15</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
   <si>
     <t>02262 Wiehl</t>
   </si>
@@ -243,14 +244,39 @@
   </si>
   <si>
     <t>Aufschlüsselung der Probanden</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>time (avg)</t>
+  </si>
+  <si>
+    <t>actions (avg)</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>WDR4</t>
+  </si>
+  <si>
+    <t>Zeit und Aktionen pro Wort (avg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.00\ &quot;min&quot;"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.00\ &quot;min&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;sek&quot;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -450,7 +476,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
@@ -496,29 +522,30 @@
     </xf>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40 % - Akzent1" xfId="3" builtinId="31"/>
@@ -839,10 +866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17FA94D-8AE4-4840-AEB8-46597ADAE149}">
-  <dimension ref="A1:V59"/>
+  <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,24 +886,29 @@
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="4.140625" customWidth="1"/>
+    <col min="23" max="24" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" customWidth="1"/>
+    <col min="26" max="26" width="7.7109375" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="H1" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
       <c r="P1" s="32" t="s">
         <v>61</v>
       </c>
@@ -885,8 +917,15 @@
       <c r="S1" s="32"/>
       <c r="T1" s="32"/>
       <c r="U1" s="32"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X1" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="16" t="s">
         <v>27</v>
       </c>
@@ -909,7 +948,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C3" s="12" t="s">
         <v>26</v>
       </c>
@@ -937,16 +976,16 @@
       <c r="N3" s="6">
         <v>8.5</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="30" t="s">
+      <c r="R3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="28" t="s">
         <v>28</v>
       </c>
       <c r="T3" s="17" t="s">
@@ -955,8 +994,23 @@
       <c r="U3" s="17" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA3" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
@@ -987,26 +1041,41 @@
       <c r="N4" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="33">
+      <c r="Q4" s="30">
         <v>1</v>
       </c>
-      <c r="R4" s="31">
+      <c r="R4" s="29">
         <v>52</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="29">
+      <c r="T4" s="27">
         <v>13.25</v>
       </c>
-      <c r="U4" s="29">
+      <c r="U4" s="27">
         <v>24.59</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA4" s="34">
+        <v>89.28</v>
+      </c>
+      <c r="AB4" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -1040,26 +1109,41 @@
       <c r="N5" s="6">
         <v>2</v>
       </c>
-      <c r="P5" s="33" t="s">
+      <c r="P5" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="33">
+      <c r="Q5" s="30">
         <v>2</v>
       </c>
-      <c r="R5" s="31">
+      <c r="R5" s="29">
         <v>40</v>
       </c>
-      <c r="S5" s="31" t="s">
+      <c r="S5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="29">
+      <c r="T5" s="27">
         <v>16.13</v>
       </c>
-      <c r="U5" s="29">
+      <c r="U5" s="27">
         <v>20.37</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="34">
+        <v>61.34</v>
+      </c>
+      <c r="AB5" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1093,26 +1177,41 @@
       <c r="N6" s="6">
         <v>5.75</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="P6" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="33">
+      <c r="Q6" s="30">
         <v>3</v>
       </c>
-      <c r="R6" s="31">
+      <c r="R6" s="29">
         <v>35</v>
       </c>
-      <c r="S6" s="31" t="s">
+      <c r="S6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="29">
+      <c r="T6" s="27">
         <v>21.89</v>
       </c>
-      <c r="U6" s="29">
+      <c r="U6" s="27">
         <v>28.68</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X6" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA6" s="34">
+        <v>103.15</v>
+      </c>
+      <c r="AB6" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1146,26 +1245,41 @@
       <c r="N7" s="6">
         <v>8.5</v>
       </c>
-      <c r="P7" s="33" t="s">
+      <c r="P7" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="33">
+      <c r="Q7" s="30">
         <v>4</v>
       </c>
-      <c r="R7" s="31">
+      <c r="R7" s="29">
         <v>44</v>
       </c>
-      <c r="S7" s="31" t="s">
+      <c r="S7" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="29">
+      <c r="T7" s="27">
         <v>15.43</v>
       </c>
-      <c r="U7" s="29">
+      <c r="U7" s="27">
         <v>28.79</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="34">
+        <v>66.47</v>
+      </c>
+      <c r="AB7" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>0.25</v>
       </c>
@@ -1199,26 +1313,41 @@
       <c r="N8" s="6">
         <v>11</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="33">
+      <c r="Q8" s="30">
         <v>5</v>
       </c>
-      <c r="R8" s="31">
+      <c r="R8" s="29">
         <v>21</v>
       </c>
-      <c r="S8" s="31" t="s">
+      <c r="S8" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="29">
+      <c r="T8" s="27">
         <v>12.59</v>
       </c>
-      <c r="U8" s="29">
+      <c r="U8" s="27">
         <v>13.48</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA8" s="34">
+        <v>91.9</v>
+      </c>
+      <c r="AB8" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>0.5</v>
       </c>
@@ -1252,26 +1381,41 @@
       <c r="N9" s="23">
         <v>17</v>
       </c>
-      <c r="P9" s="33" t="s">
+      <c r="P9" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="33">
+      <c r="Q9" s="30">
         <v>6</v>
       </c>
-      <c r="R9" s="31">
+      <c r="R9" s="29">
         <v>21</v>
       </c>
-      <c r="S9" s="31" t="s">
+      <c r="S9" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="29">
+      <c r="T9" s="27">
         <v>13.62</v>
       </c>
-      <c r="U9" s="29">
+      <c r="U9" s="27">
         <v>15.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="34">
+        <v>73.53</v>
+      </c>
+      <c r="AB9" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>0.75</v>
       </c>
@@ -1287,26 +1431,41 @@
       <c r="H10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="33" t="s">
+      <c r="P10" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="33">
+      <c r="Q10" s="30">
         <v>7</v>
       </c>
-      <c r="R10" s="31">
+      <c r="R10" s="29">
         <v>51</v>
       </c>
-      <c r="S10" s="31" t="s">
+      <c r="S10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="29">
+      <c r="T10" s="27">
         <v>13.65</v>
       </c>
-      <c r="U10" s="29">
+      <c r="U10" s="27">
         <v>26.13</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X10" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA10" s="34">
+        <v>72.69</v>
+      </c>
+      <c r="AB10" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>25</v>
       </c>
@@ -1340,26 +1499,41 @@
       <c r="N11" s="6">
         <v>8.08</v>
       </c>
-      <c r="P11" s="33" t="s">
+      <c r="P11" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" s="33">
+      <c r="Q11" s="30">
         <v>8</v>
       </c>
-      <c r="R11" s="31">
+      <c r="R11" s="29">
         <v>51</v>
       </c>
-      <c r="S11" s="31" t="s">
+      <c r="S11" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="29">
+      <c r="T11" s="27">
         <v>18.59</v>
       </c>
-      <c r="U11" s="29">
+      <c r="U11" s="27">
         <v>24.31</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="34">
+        <v>53.81</v>
+      </c>
+      <c r="AB11" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
@@ -1390,26 +1564,41 @@
       <c r="N12" s="6">
         <v>3.8479999999999999</v>
       </c>
-      <c r="P12" s="33" t="s">
+      <c r="P12" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="33">
+      <c r="Q12" s="30">
         <v>9</v>
       </c>
-      <c r="R12" s="31">
+      <c r="R12" s="29">
         <v>14</v>
       </c>
-      <c r="S12" s="31" t="s">
+      <c r="S12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="29">
+      <c r="T12" s="27">
         <v>16.13</v>
       </c>
-      <c r="U12" s="29">
+      <c r="U12" s="27">
         <v>13.94</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA12" s="34">
+        <v>91.51</v>
+      </c>
+      <c r="AB12" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
@@ -1443,26 +1632,41 @@
       <c r="N13" s="6">
         <v>2</v>
       </c>
-      <c r="P13" s="33" t="s">
+      <c r="P13" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="33">
+      <c r="Q13" s="30">
         <v>10</v>
       </c>
-      <c r="R13" s="31">
+      <c r="R13" s="29">
         <v>23</v>
       </c>
-      <c r="S13" s="31" t="s">
+      <c r="S13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="27">
         <v>12.13</v>
       </c>
-      <c r="U13" s="29">
+      <c r="U13" s="27">
         <v>21.83</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="34">
+        <v>72.75</v>
+      </c>
+      <c r="AB13" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>23</v>
       </c>
@@ -1496,26 +1700,41 @@
       <c r="N14" s="6">
         <v>5</v>
       </c>
-      <c r="P14" s="33" t="s">
+      <c r="P14" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" s="33">
+      <c r="Q14" s="30">
         <v>11</v>
       </c>
-      <c r="R14" s="31">
+      <c r="R14" s="29">
         <v>23</v>
       </c>
-      <c r="S14" s="31" t="s">
+      <c r="S14" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="29">
+      <c r="T14" s="27">
         <v>15.48</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="27">
         <v>18.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA14" s="34">
+        <v>78.94</v>
+      </c>
+      <c r="AB14" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1549,26 +1768,41 @@
       <c r="N15" s="6">
         <v>7.5</v>
       </c>
-      <c r="P15" s="33" t="s">
+      <c r="P15" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="33">
+      <c r="Q15" s="30">
         <v>12</v>
       </c>
-      <c r="R15" s="31">
+      <c r="R15" s="29">
         <v>52</v>
       </c>
-      <c r="S15" s="31" t="s">
+      <c r="S15" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="29">
+      <c r="T15" s="27">
         <v>18.21</v>
       </c>
-      <c r="U15" s="29">
+      <c r="U15" s="27">
         <v>24.67</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="X15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA15" s="34">
+        <v>55.11</v>
+      </c>
+      <c r="AB15" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>0.25</v>
       </c>
@@ -1602,8 +1836,23 @@
       <c r="N16" s="6">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA16" s="34">
+        <v>50.78</v>
+      </c>
+      <c r="AB16" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>0.5</v>
       </c>
@@ -1637,8 +1886,23 @@
       <c r="N17" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z17" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA17" s="34">
+        <v>32.659999999999997</v>
+      </c>
+      <c r="AB17" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>0.75</v>
       </c>
@@ -1654,11 +1918,26 @@
       <c r="H18" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y18" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z18" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA18" s="34">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="AB18" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>25</v>
       </c>
@@ -1692,8 +1971,23 @@
       <c r="N19" s="6">
         <v>7.8330000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA19" s="34">
+        <v>40.44</v>
+      </c>
+      <c r="AB19" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B20" s="17" t="s">
         <v>40</v>
       </c>
@@ -1724,8 +2018,23 @@
       <c r="N20" s="6">
         <v>3.544</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y20" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z20" s="9">
+        <v>7</v>
+      </c>
+      <c r="AA20" s="34">
+        <v>63.88</v>
+      </c>
+      <c r="AB20" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1759,8 +2068,23 @@
       <c r="N21" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z21" s="9">
+        <v>7</v>
+      </c>
+      <c r="AA21" s="34">
+        <v>54.13</v>
+      </c>
+      <c r="AB21" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1794,8 +2118,23 @@
       <c r="N22" s="6">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y22" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z22" s="9">
+        <v>8</v>
+      </c>
+      <c r="AA22" s="34">
+        <v>72.23</v>
+      </c>
+      <c r="AB22" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
@@ -1829,8 +2168,23 @@
       <c r="N23" s="6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y23" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>8</v>
+      </c>
+      <c r="AA23" s="34">
+        <v>61.6</v>
+      </c>
+      <c r="AB23" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>0.25</v>
       </c>
@@ -1864,8 +2218,23 @@
       <c r="N24" s="6">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA24" s="34">
+        <v>89.26</v>
+      </c>
+      <c r="AB24" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>0.5</v>
       </c>
@@ -1899,8 +2268,23 @@
       <c r="N25" s="23">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X25" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>10</v>
+      </c>
+      <c r="AA25" s="34">
+        <v>68.349999999999994</v>
+      </c>
+      <c r="AB25" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>0.75</v>
       </c>
@@ -1916,11 +2300,26 @@
       <c r="H26" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="28" t="s">
+      <c r="I26" s="26" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X26" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="34">
+        <v>57.24</v>
+      </c>
+      <c r="AB26" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1954,8 +2353,23 @@
       <c r="N27" s="6">
         <v>9.1666000000000007</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X27" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="34">
+        <v>37.43</v>
+      </c>
+      <c r="AB27" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H28" s="3" t="s">
         <v>23</v>
       </c>
@@ -1977,14 +2391,29 @@
       <c r="N28" s="6">
         <v>5.3819999999999997</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
+      <c r="X28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y28" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA28" s="34">
+        <v>53.8</v>
+      </c>
+      <c r="AB28" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2006,8 +2435,23 @@
       <c r="N29" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA29" s="34">
+        <v>34.72</v>
+      </c>
+      <c r="AB29" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H30" s="4">
         <v>0.25</v>
       </c>
@@ -2029,12 +2473,27 @@
       <c r="N30" s="6">
         <v>5.25</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="25" t="s">
+      <c r="X30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y30" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="25"/>
+      <c r="Z30" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA30" s="34">
+        <v>37.99</v>
+      </c>
+      <c r="AB30" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C31" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="33"/>
       <c r="H31" s="4">
         <v>0.5</v>
       </c>
@@ -2056,8 +2515,23 @@
       <c r="N31" s="6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y31" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA31" s="34">
+        <v>34.270000000000003</v>
+      </c>
+      <c r="AB31" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -2091,21 +2565,36 @@
       <c r="N32" s="6">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="34">
+        <v>37.729999999999997</v>
+      </c>
+      <c r="AB32" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>5</v>
       </c>
       <c r="B33" s="10">
-        <f>_xlfn.XLOOKUP(A33,id,age)</f>
+        <f t="shared" ref="B33:B44" si="0">_xlfn.XLOOKUP(A33,id,age)</f>
         <v>21</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A33,id,sex)</f>
+        <f t="shared" ref="C33:C44" si="1">_xlfn.XLOOKUP(A33,id,sex)</f>
         <v>male</v>
       </c>
       <c r="D33" s="10">
-        <f>_xlfn.XLOOKUP(A33,id,time_DREA)</f>
+        <f t="shared" ref="D33:D44" si="2">_xlfn.XLOOKUP(A33,id,time_DREA)</f>
         <v>13.48</v>
       </c>
       <c r="H33" s="3" t="s">
@@ -2129,44 +2618,74 @@
       <c r="N33" s="23">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X33" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y33" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z33" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA33" s="34">
+        <v>25.82</v>
+      </c>
+      <c r="AB33" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>9</v>
       </c>
       <c r="B34" s="10">
-        <f>_xlfn.XLOOKUP(A34,id,age)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C34" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A34,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>male</v>
       </c>
       <c r="D34" s="10">
-        <f>_xlfn.XLOOKUP(A34,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>13.94</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="28" t="s">
+      <c r="I34" s="26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y34" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z34" s="9">
+        <v>7</v>
+      </c>
+      <c r="AA34" s="34">
+        <v>53.12</v>
+      </c>
+      <c r="AB34" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>6</v>
       </c>
       <c r="B35" s="10">
-        <f>_xlfn.XLOOKUP(A35,id,age)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C35" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A35,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>female</v>
       </c>
       <c r="D35" s="10">
-        <f>_xlfn.XLOOKUP(A35,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>15.05</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -2190,21 +2709,36 @@
       <c r="N35" s="6">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z35" s="9">
+        <v>7</v>
+      </c>
+      <c r="AA35" s="34">
+        <v>45.79</v>
+      </c>
+      <c r="AB35" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>11</v>
       </c>
       <c r="B36" s="10">
-        <f>_xlfn.XLOOKUP(A36,id,age)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C36" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A36,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>female</v>
       </c>
       <c r="D36" s="10">
-        <f>_xlfn.XLOOKUP(A36,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>18.21</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -2228,21 +2762,36 @@
       <c r="N36" s="6">
         <v>3.391</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y36" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z36" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA36" s="34">
+        <v>45.09</v>
+      </c>
+      <c r="AB36" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>2</v>
       </c>
       <c r="B37" s="10">
-        <f>_xlfn.XLOOKUP(A37,id,age)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C37" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A37,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>male</v>
       </c>
       <c r="D37" s="10">
-        <f>_xlfn.XLOOKUP(A37,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>20.37</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -2266,21 +2815,36 @@
       <c r="N37" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y37" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z37" s="9">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="34">
+        <v>27.68</v>
+      </c>
+      <c r="AB37" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>10</v>
       </c>
       <c r="B38" s="10">
-        <f>_xlfn.XLOOKUP(A38,id,age)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A38,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>male</v>
       </c>
       <c r="D38" s="10">
-        <f>_xlfn.XLOOKUP(A38,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>21.83</v>
       </c>
       <c r="H38" s="4">
@@ -2304,21 +2868,36 @@
       <c r="N38" s="6">
         <v>7.25</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y38" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z38" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA38" s="34">
+        <v>61</v>
+      </c>
+      <c r="AB38" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>8</v>
       </c>
       <c r="B39" s="10">
-        <f>_xlfn.XLOOKUP(A39,id,age)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A39,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>female</v>
       </c>
       <c r="D39" s="10">
-        <f>_xlfn.XLOOKUP(A39,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>24.31</v>
       </c>
       <c r="H39" s="4">
@@ -2342,21 +2921,36 @@
       <c r="N39" s="6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y39" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="34">
+        <v>48</v>
+      </c>
+      <c r="AB39" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>1</v>
       </c>
       <c r="B40" s="10">
-        <f>_xlfn.XLOOKUP(A40,id,age)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A40,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>male</v>
       </c>
       <c r="D40" s="10">
-        <f>_xlfn.XLOOKUP(A40,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>24.59</v>
       </c>
       <c r="H40" s="4">
@@ -2380,21 +2974,36 @@
       <c r="N40" s="6">
         <v>11.25</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y40" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA40" s="34">
+        <v>52.94</v>
+      </c>
+      <c r="AB40" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>12</v>
       </c>
       <c r="B41" s="10">
-        <f>_xlfn.XLOOKUP(A41,id,age)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A41,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>male</v>
       </c>
       <c r="D41" s="10">
-        <f>_xlfn.XLOOKUP(A41,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>24.67</v>
       </c>
       <c r="H41" s="3" t="s">
@@ -2418,44 +3027,59 @@
       <c r="N41" s="23">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X41" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y41" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="34">
+        <v>41.48</v>
+      </c>
+      <c r="AB41" s="21">
+        <v>103.42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>7</v>
       </c>
       <c r="B42" s="10">
-        <f>_xlfn.XLOOKUP(A42,id,age)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A42,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>male</v>
       </c>
       <c r="D42" s="10">
-        <f>_xlfn.XLOOKUP(A42,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>26.13</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="28" t="s">
+      <c r="I42" s="26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>3</v>
       </c>
       <c r="B43" s="10">
-        <f>_xlfn.XLOOKUP(A43,id,age)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A43,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>female</v>
       </c>
       <c r="D43" s="10">
-        <f>_xlfn.XLOOKUP(A43,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>28.68</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -2480,20 +3104,20 @@
         <v>6.6660000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>4</v>
       </c>
       <c r="B44" s="10">
-        <f>_xlfn.XLOOKUP(A44,id,age)</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A44,id,sex)</f>
+        <f t="shared" si="1"/>
         <v>female</v>
       </c>
       <c r="D44" s="10">
-        <f>_xlfn.XLOOKUP(A44,id,time_DREA)</f>
+        <f t="shared" si="2"/>
         <v>28.79</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -2518,7 +3142,7 @@
         <v>4.0330000000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
       <c r="H45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2541,11 +3165,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C46" s="25" t="s">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="C46" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="25"/>
+      <c r="D46" s="33"/>
       <c r="H46" s="4">
         <v>0.25</v>
       </c>
@@ -2568,7 +3192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>19</v>
       </c>
@@ -2603,20 +3227,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>10</v>
       </c>
       <c r="B48" s="10">
-        <f>_xlfn.XLOOKUP(A48,id,age)</f>
+        <f t="shared" ref="B48:B59" si="3">_xlfn.XLOOKUP(A48,id,age)</f>
         <v>23</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A48,id,sex)</f>
+        <f t="shared" ref="C48:C59" si="4">_xlfn.XLOOKUP(A48,id,sex)</f>
         <v>male</v>
       </c>
       <c r="D48" s="10">
-        <f>_xlfn.XLOOKUP(A48,id,time_normal)</f>
+        <f t="shared" ref="D48:D59" si="5">_xlfn.XLOOKUP(A48,id,time_normal)</f>
         <v>12.13</v>
       </c>
       <c r="H48" s="4">
@@ -2646,15 +3270,15 @@
         <v>5</v>
       </c>
       <c r="B49" s="10">
-        <f>_xlfn.XLOOKUP(A49,id,age)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A49,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>male</v>
       </c>
       <c r="D49" s="10">
-        <f>_xlfn.XLOOKUP(A49,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>12.59</v>
       </c>
       <c r="H49" s="3" t="s">
@@ -2684,15 +3308,15 @@
         <v>1</v>
       </c>
       <c r="B50" s="10">
-        <f>_xlfn.XLOOKUP(A50,id,age)</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A50,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>male</v>
       </c>
       <c r="D50" s="10">
-        <f>_xlfn.XLOOKUP(A50,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>13.25</v>
       </c>
     </row>
@@ -2701,15 +3325,15 @@
         <v>6</v>
       </c>
       <c r="B51" s="10">
-        <f>_xlfn.XLOOKUP(A51,id,age)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A51,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>female</v>
       </c>
       <c r="D51" s="10">
-        <f>_xlfn.XLOOKUP(A51,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>13.62</v>
       </c>
     </row>
@@ -2718,15 +3342,15 @@
         <v>7</v>
       </c>
       <c r="B52" s="10">
-        <f>_xlfn.XLOOKUP(A52,id,age)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A52,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>male</v>
       </c>
       <c r="D52" s="10">
-        <f>_xlfn.XLOOKUP(A52,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>13.65</v>
       </c>
     </row>
@@ -2735,15 +3359,15 @@
         <v>4</v>
       </c>
       <c r="B53" s="10">
-        <f>_xlfn.XLOOKUP(A53,id,age)</f>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A53,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>female</v>
       </c>
       <c r="D53" s="10">
-        <f>_xlfn.XLOOKUP(A53,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>15.43</v>
       </c>
     </row>
@@ -2752,15 +3376,15 @@
         <v>11</v>
       </c>
       <c r="B54" s="10">
-        <f>_xlfn.XLOOKUP(A54,id,age)</f>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="C54" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A54,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>female</v>
       </c>
       <c r="D54" s="10">
-        <f>_xlfn.XLOOKUP(A54,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>15.48</v>
       </c>
     </row>
@@ -2769,15 +3393,15 @@
         <v>2</v>
       </c>
       <c r="B55" s="10">
-        <f>_xlfn.XLOOKUP(A55,id,age)</f>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A55,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>male</v>
       </c>
       <c r="D55" s="10">
-        <f>_xlfn.XLOOKUP(A55,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>16.13</v>
       </c>
     </row>
@@ -2786,15 +3410,15 @@
         <v>9</v>
       </c>
       <c r="B56" s="10">
-        <f>_xlfn.XLOOKUP(A56,id,age)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="C56" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A56,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>male</v>
       </c>
       <c r="D56" s="10">
-        <f>_xlfn.XLOOKUP(A56,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>16.13</v>
       </c>
     </row>
@@ -2803,15 +3427,15 @@
         <v>12</v>
       </c>
       <c r="B57" s="10">
-        <f>_xlfn.XLOOKUP(A57,id,age)</f>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
       <c r="C57" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A57,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>male</v>
       </c>
       <c r="D57" s="10">
-        <f>_xlfn.XLOOKUP(A57,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>18.21</v>
       </c>
     </row>
@@ -2820,15 +3444,15 @@
         <v>8</v>
       </c>
       <c r="B58" s="10">
-        <f>_xlfn.XLOOKUP(A58,id,age)</f>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="C58" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A58,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>female</v>
       </c>
       <c r="D58" s="10">
-        <f>_xlfn.XLOOKUP(A58,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>18.59</v>
       </c>
     </row>
@@ -2837,20 +3461,29 @@
         <v>3</v>
       </c>
       <c r="B59" s="10">
-        <f>_xlfn.XLOOKUP(A59,id,age)</f>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f>_xlfn.XLOOKUP(A59,id,sex)</f>
+        <f t="shared" si="4"/>
         <v>female</v>
       </c>
       <c r="D59" s="10">
-        <f>_xlfn.XLOOKUP(A59,id,time_normal)</f>
+        <f t="shared" si="5"/>
         <v>21.89</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="X3:AB41" xr:uid="{B17FA94D-8AE4-4840-AEB8-46597ADAE149}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X4:AB41">
+      <sortCondition ref="X3:X41"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="X4:Z41">
+    <sortCondition descending="1" ref="Y4:Y41"/>
+  </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="X1:AB1"/>
     <mergeCell ref="H1:N1"/>
     <mergeCell ref="P1:U1"/>
     <mergeCell ref="C31:D31"/>

--- a/study-data.xlsx
+++ b/study-data.xlsx
@@ -1,24 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\Studium\Semester\7-Semester\Bachelorarbeit\Ausarbeitung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FED291E-C478-4B7F-B853-CA1697149EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AAD930-5996-4115-90AC-3931B3DF6755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DB0FC4BB-E257-4BFF-9146-489D7EA4ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Auswertung Daten" sheetId="2" r:id="rId1"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId2"/>
+    <sheet name="Worte" sheetId="1" r:id="rId2"/>
+    <sheet name="Probanden" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Auswertung Daten'!$X$3:$AB$41</definedName>
     <definedName name="age">'Auswertung Daten'!$R$4:$R$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Tabelle1[#All]</definedName>
+    <definedName name="Durchschnitts_alter">Probanden!#REF!</definedName>
     <definedName name="id">'Auswertung Daten'!$Q$4:$Q$15</definedName>
     <definedName name="Proband">'Auswertung Daten'!$Q$4:$U$15</definedName>
     <definedName name="Proband_1">'Auswertung Daten'!$Q$4:$U$4</definedName>
@@ -36,6 +39,7 @@
     <definedName name="sex">'Auswertung Daten'!$S$4:$S$15</definedName>
     <definedName name="time_DREA">'Auswertung Daten'!$U$4:$U$15</definedName>
     <definedName name="time_normal">'Auswertung Daten'!$T$4:$T$15</definedName>
+    <definedName name="Worte">Worte!$G$7,Worte!$C$12,Worte!$C$3:$D$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="74">
   <si>
     <t>02262 Wiehl</t>
   </si>
@@ -268,6 +272,18 @@
   </si>
   <si>
     <t>Zeit und Aktionen pro Wort (avg)</t>
+  </si>
+  <si>
+    <t>actions_drea</t>
+  </si>
+  <si>
+    <t>actions_normal</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>Ergebnis</t>
   </si>
 </sst>
 </file>
@@ -276,9 +292,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;min&quot;"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00\ &quot;sek&quot;"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;sek&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,8 +346,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -372,8 +394,14 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -466,6 +494,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -476,7 +528,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
@@ -506,7 +558,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -536,16 +587,39 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="40 % - Akzent1" xfId="3" builtinId="31"/>
@@ -556,7 +630,600 @@
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="28">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;min&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;min&quot;"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -567,6 +1234,41 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{90D24EFB-6B74-451A-82DC-4CFB70C0E48A}" name="Tabelle1" displayName="Tabelle1" ref="I6:N19" totalsRowCount="1" headerRowDxfId="13" tableBorderDxfId="12" headerRowCellStyle="60 % - Akzent2">
+  <autoFilter ref="I6:N18" xr:uid="{90D24EFB-6B74-451A-82DC-4CFB70C0E48A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{D2718FC2-5307-4EC7-8FF7-0A6112BDBEA1}" name="Proband " totalsRowLabel="Ergebnis" dataDxfId="11" totalsRowDxfId="5" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="2" xr3:uid="{4C8D0F87-7ADE-4F76-98C1-0E64568B37EB}" name="id" dataDxfId="10" totalsRowDxfId="4" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="3" xr3:uid="{BFC0354A-6D8A-4395-852C-6C09BF6E554E}" name="age" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="4" xr3:uid="{13369E7E-643E-446A-8EF9-8A3C8CE040D5}" name="sex" dataDxfId="8" totalsRowDxfId="2" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="5" xr3:uid="{B31C9711-75F4-43F8-A25D-50FA0EB493E0}" name="time normal" totalsRowFunction="sum" dataDxfId="7" totalsRowDxfId="0" dataCellStyle="40 % - Akzent1"/>
+    <tableColumn id="6" xr3:uid="{DBDE964B-22F0-44CC-9DC2-F8735B8A4BD9}" name="time DREA" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="1" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B57C52F-3BC5-499F-8AA2-00CC7F684841}" name="Tabelle33" displayName="Tabelle33" ref="B6:G19" totalsRowCount="1" headerRowDxfId="27" tableBorderDxfId="26" headerRowCellStyle="60 % - Akzent2" dataCellStyle="40 % - Akzent1">
+  <autoFilter ref="B6:G18" xr:uid="{4B57C52F-3BC5-499F-8AA2-00CC7F684841}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B7:G18">
+    <sortCondition ref="B4294967283:B4294967295"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{AEB548FF-2FC9-4374-8197-DEF9484A5AEF}" name="id" dataDxfId="24" totalsRowDxfId="25" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="2" xr3:uid="{A2C4B6CF-B448-4A43-AEA8-58DD59FB3AC9}" name="sex" dataDxfId="22" totalsRowDxfId="23" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="3" xr3:uid="{F55C5162-6CC4-4BCB-AF9F-18DBF6C117BA}" name="age" dataDxfId="20" totalsRowDxfId="21" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="4" xr3:uid="{0F479502-0BE7-4BEA-8352-F22016710767}" name="actions_drea" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="19" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="5" xr3:uid="{AE1BD6E4-27BB-4AA8-AD43-0E4E9AD8C52B}" name="actions_normal" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="17" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1"/>
+    <tableColumn id="6" xr3:uid="{B74456BD-0981-4D1A-94A8-C8C860A1AB60}" name="difference" dataDxfId="14" totalsRowDxfId="15" dataCellStyle="40 % - Akzent1" totalsRowCellStyle="40 % - Akzent1">
+      <calculatedColumnFormula>F7-E7</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -868,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17FA94D-8AE4-4840-AEB8-46597ADAE149}">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -894,42 +1596,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="H1" s="31" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="H1" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="P1" s="32" t="s">
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="P1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="X1" s="32" t="s">
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="X1" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
     </row>
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="16" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -958,7 +1660,7 @@
       <c r="H3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="17">
         <v>6.6660000000000004</v>
       </c>
       <c r="J3" s="7">
@@ -967,7 +1669,7 @@
       <c r="K3" s="6">
         <v>7.0830000000000002</v>
       </c>
-      <c r="L3" s="21">
+      <c r="L3" s="20">
         <v>6.5830000000000002</v>
       </c>
       <c r="M3" s="6">
@@ -976,37 +1678,37 @@
       <c r="N3" s="6">
         <v>8.5</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="28" t="s">
+      <c r="R3" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="17" t="s">
+      <c r="T3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AA3" s="28" t="s">
+      <c r="AA3" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="28" t="s">
+      <c r="AB3" s="27" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1032,7 +1734,7 @@
       <c r="K4" s="6">
         <v>4.5410000000000004</v>
       </c>
-      <c r="L4" s="22">
+      <c r="L4" s="21">
         <v>2.9060000000000001</v>
       </c>
       <c r="M4" s="6">
@@ -1041,22 +1743,22 @@
       <c r="N4" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="Q4" s="29">
         <v>1</v>
       </c>
-      <c r="R4" s="29">
+      <c r="R4" s="28">
         <v>52</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="S4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="27">
+      <c r="T4" s="26">
         <v>13.25</v>
       </c>
-      <c r="U4" s="27">
+      <c r="U4" s="26">
         <v>24.59</v>
       </c>
       <c r="X4" s="9" t="s">
@@ -1068,10 +1770,10 @@
       <c r="Z4" s="9">
         <v>11</v>
       </c>
-      <c r="AA4" s="34">
+      <c r="AA4" s="30">
         <v>89.28</v>
       </c>
-      <c r="AB4" s="21">
+      <c r="AB4" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1091,7 +1793,7 @@
       <c r="H5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="17">
         <v>1</v>
       </c>
       <c r="J5" s="7">
@@ -1100,7 +1802,7 @@
       <c r="K5" s="6">
         <v>1</v>
       </c>
-      <c r="L5" s="21">
+      <c r="L5" s="20">
         <v>3</v>
       </c>
       <c r="M5" s="6">
@@ -1109,22 +1811,22 @@
       <c r="N5" s="6">
         <v>2</v>
       </c>
-      <c r="P5" s="30" t="s">
+      <c r="P5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="Q5" s="29">
         <v>2</v>
       </c>
-      <c r="R5" s="29">
+      <c r="R5" s="28">
         <v>40</v>
       </c>
-      <c r="S5" s="29" t="s">
+      <c r="S5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T5" s="27">
+      <c r="T5" s="26">
         <v>16.13</v>
       </c>
-      <c r="U5" s="27">
+      <c r="U5" s="26">
         <v>20.37</v>
       </c>
       <c r="X5" s="9" t="s">
@@ -1136,10 +1838,10 @@
       <c r="Z5" s="9">
         <v>11</v>
       </c>
-      <c r="AA5" s="34">
+      <c r="AA5" s="30">
         <v>61.34</v>
       </c>
-      <c r="AB5" s="21">
+      <c r="AB5" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1159,7 +1861,7 @@
       <c r="H6" s="4">
         <v>0.25</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="17">
         <v>4</v>
       </c>
       <c r="J6" s="7">
@@ -1168,7 +1870,7 @@
       <c r="K6" s="6">
         <v>4.5</v>
       </c>
-      <c r="L6" s="21">
+      <c r="L6" s="20">
         <v>4.75</v>
       </c>
       <c r="M6" s="6">
@@ -1177,22 +1879,22 @@
       <c r="N6" s="6">
         <v>5.75</v>
       </c>
-      <c r="P6" s="30" t="s">
+      <c r="P6" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="Q6" s="29">
         <v>3</v>
       </c>
-      <c r="R6" s="29">
+      <c r="R6" s="28">
         <v>35</v>
       </c>
-      <c r="S6" s="29" t="s">
+      <c r="S6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="T6" s="27">
+      <c r="T6" s="26">
         <v>21.89</v>
       </c>
-      <c r="U6" s="27">
+      <c r="U6" s="26">
         <v>28.68</v>
       </c>
       <c r="X6" s="9" t="s">
@@ -1204,10 +1906,10 @@
       <c r="Z6" s="9">
         <v>11</v>
       </c>
-      <c r="AA6" s="34">
+      <c r="AA6" s="30">
         <v>103.15</v>
       </c>
-      <c r="AB6" s="21">
+      <c r="AB6" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1227,7 +1929,7 @@
       <c r="H7" s="4">
         <v>0.5</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>6</v>
       </c>
       <c r="J7" s="7">
@@ -1236,7 +1938,7 @@
       <c r="K7" s="6">
         <v>6.5</v>
       </c>
-      <c r="L7" s="21">
+      <c r="L7" s="20">
         <v>5</v>
       </c>
       <c r="M7" s="6">
@@ -1245,22 +1947,22 @@
       <c r="N7" s="6">
         <v>8.5</v>
       </c>
-      <c r="P7" s="30" t="s">
+      <c r="P7" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="Q7" s="29">
         <v>4</v>
       </c>
-      <c r="R7" s="29">
+      <c r="R7" s="28">
         <v>44</v>
       </c>
-      <c r="S7" s="29" t="s">
+      <c r="S7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="27">
+      <c r="T7" s="26">
         <v>15.43</v>
       </c>
-      <c r="U7" s="27">
+      <c r="U7" s="26">
         <v>28.79</v>
       </c>
       <c r="X7" s="9" t="s">
@@ -1272,10 +1974,10 @@
       <c r="Z7" s="9">
         <v>11</v>
       </c>
-      <c r="AA7" s="34">
+      <c r="AA7" s="30">
         <v>66.47</v>
       </c>
-      <c r="AB7" s="21">
+      <c r="AB7" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1295,7 +1997,7 @@
       <c r="H8" s="4">
         <v>0.75</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>9</v>
       </c>
       <c r="J8" s="7">
@@ -1304,7 +2006,7 @@
       <c r="K8" s="6">
         <v>9.75</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="20">
         <v>9.25</v>
       </c>
       <c r="M8" s="6">
@@ -1313,22 +2015,22 @@
       <c r="N8" s="6">
         <v>11</v>
       </c>
-      <c r="P8" s="30" t="s">
+      <c r="P8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="Q8" s="29">
         <v>5</v>
       </c>
-      <c r="R8" s="29">
+      <c r="R8" s="28">
         <v>21</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T8" s="27">
+      <c r="T8" s="26">
         <v>12.59</v>
       </c>
-      <c r="U8" s="27">
+      <c r="U8" s="26">
         <v>13.48</v>
       </c>
       <c r="X8" s="9" t="s">
@@ -1340,10 +2042,10 @@
       <c r="Z8" s="9">
         <v>11</v>
       </c>
-      <c r="AA8" s="34">
+      <c r="AA8" s="30">
         <v>91.9</v>
       </c>
-      <c r="AB8" s="21">
+      <c r="AB8" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1363,40 +2065,40 @@
       <c r="H9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I9" s="18">
         <v>15</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="19">
         <v>14</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="22">
         <v>15</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="23">
         <v>11</v>
       </c>
-      <c r="M9" s="23">
+      <c r="M9" s="22">
         <v>19</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <v>17</v>
       </c>
-      <c r="P9" s="30" t="s">
+      <c r="P9" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="Q9" s="29">
         <v>6</v>
       </c>
-      <c r="R9" s="29">
+      <c r="R9" s="28">
         <v>21</v>
       </c>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="27">
+      <c r="T9" s="26">
         <v>13.62</v>
       </c>
-      <c r="U9" s="27">
+      <c r="U9" s="26">
         <v>15.05</v>
       </c>
       <c r="X9" s="9" t="s">
@@ -1408,10 +2110,10 @@
       <c r="Z9" s="9">
         <v>11</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="30">
         <v>73.53</v>
       </c>
-      <c r="AB9" s="21">
+      <c r="AB9" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1431,22 +2133,22 @@
       <c r="H10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="30" t="s">
+      <c r="P10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="Q10" s="29">
         <v>7</v>
       </c>
-      <c r="R10" s="29">
+      <c r="R10" s="28">
         <v>51</v>
       </c>
-      <c r="S10" s="29" t="s">
+      <c r="S10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T10" s="27">
+      <c r="T10" s="26">
         <v>13.65</v>
       </c>
-      <c r="U10" s="27">
+      <c r="U10" s="26">
         <v>26.13</v>
       </c>
       <c r="X10" s="9" t="s">
@@ -1458,10 +2160,10 @@
       <c r="Z10" s="9">
         <v>10</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="AA10" s="30">
         <v>72.69</v>
       </c>
-      <c r="AB10" s="21">
+      <c r="AB10" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1481,7 +2183,7 @@
       <c r="H11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <v>11.25</v>
       </c>
       <c r="J11" s="7">
@@ -1490,7 +2192,7 @@
       <c r="K11" s="6">
         <v>9</v>
       </c>
-      <c r="L11" s="21">
+      <c r="L11" s="20">
         <v>10</v>
       </c>
       <c r="M11" s="6">
@@ -1499,22 +2201,22 @@
       <c r="N11" s="6">
         <v>8.08</v>
       </c>
-      <c r="P11" s="30" t="s">
+      <c r="P11" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="Q11" s="29">
         <v>8</v>
       </c>
-      <c r="R11" s="29">
+      <c r="R11" s="28">
         <v>51</v>
       </c>
-      <c r="S11" s="29" t="s">
+      <c r="S11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="T11" s="27">
+      <c r="T11" s="26">
         <v>18.59</v>
       </c>
-      <c r="U11" s="27">
+      <c r="U11" s="26">
         <v>24.31</v>
       </c>
       <c r="X11" s="9" t="s">
@@ -1526,15 +2228,15 @@
       <c r="Z11" s="9">
         <v>10</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11" s="30">
         <v>53.81</v>
       </c>
-      <c r="AB11" s="21">
+      <c r="AB11" s="20">
         <v>103.42</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1555,7 +2257,7 @@
       <c r="K12" s="6">
         <v>3.7650000000000001</v>
       </c>
-      <c r="L12" s="22">
+      <c r="L12" s="21">
         <v>4.8239999999999998</v>
       </c>
       <c r="M12" s="6">
@@ -1564,22 +2266,22 @@
       <c r="N12" s="6">
         <v>3.8479999999999999</v>
       </c>
-      <c r="P12" s="30" t="s">
+      <c r="P12" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="Q12" s="29">
         <v>9</v>
       </c>
-      <c r="R12" s="29">
+      <c r="R12" s="28">
         <v>14</v>
       </c>
-      <c r="S12" s="29" t="s">
+      <c r="S12" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="26">
         <v>16.13</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="26">
         <v>13.94</v>
       </c>
       <c r="X12" s="9" t="s">
@@ -1591,10 +2293,10 @@
       <c r="Z12" s="9">
         <v>11</v>
       </c>
-      <c r="AA12" s="34">
+      <c r="AA12" s="30">
         <v>91.51</v>
       </c>
-      <c r="AB12" s="21">
+      <c r="AB12" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1614,7 +2316,7 @@
       <c r="H13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>5</v>
       </c>
       <c r="J13" s="7">
@@ -1623,7 +2325,7 @@
       <c r="K13" s="6">
         <v>2</v>
       </c>
-      <c r="L13" s="21">
+      <c r="L13" s="20">
         <v>3</v>
       </c>
       <c r="M13" s="6">
@@ -1632,22 +2334,22 @@
       <c r="N13" s="6">
         <v>2</v>
       </c>
-      <c r="P13" s="30" t="s">
+      <c r="P13" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="Q13" s="29">
         <v>10</v>
       </c>
-      <c r="R13" s="29">
+      <c r="R13" s="28">
         <v>23</v>
       </c>
-      <c r="S13" s="29" t="s">
+      <c r="S13" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T13" s="27">
+      <c r="T13" s="26">
         <v>12.13</v>
       </c>
-      <c r="U13" s="27">
+      <c r="U13" s="26">
         <v>21.83</v>
       </c>
       <c r="X13" s="9" t="s">
@@ -1659,10 +2361,10 @@
       <c r="Z13" s="9">
         <v>11</v>
       </c>
-      <c r="AA13" s="34">
+      <c r="AA13" s="30">
         <v>72.75</v>
       </c>
-      <c r="AB13" s="21">
+      <c r="AB13" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1682,7 +2384,7 @@
       <c r="H14" s="4">
         <v>0.25</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <v>8.75</v>
       </c>
       <c r="J14" s="7">
@@ -1691,7 +2393,7 @@
       <c r="K14" s="6">
         <v>6.5</v>
       </c>
-      <c r="L14" s="21">
+      <c r="L14" s="20">
         <v>5.75</v>
       </c>
       <c r="M14" s="6">
@@ -1700,22 +2402,22 @@
       <c r="N14" s="6">
         <v>5</v>
       </c>
-      <c r="P14" s="30" t="s">
+      <c r="P14" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="Q14" s="29">
         <v>11</v>
       </c>
-      <c r="R14" s="29">
+      <c r="R14" s="28">
         <v>23</v>
       </c>
-      <c r="S14" s="29" t="s">
+      <c r="S14" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="T14" s="27">
+      <c r="T14" s="26">
         <v>15.48</v>
       </c>
-      <c r="U14" s="27">
+      <c r="U14" s="26">
         <v>18.21</v>
       </c>
       <c r="X14" s="9" t="s">
@@ -1727,10 +2429,10 @@
       <c r="Z14" s="9">
         <v>10</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="30">
         <v>78.94</v>
       </c>
-      <c r="AB14" s="21">
+      <c r="AB14" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1750,7 +2452,7 @@
       <c r="H15" s="4">
         <v>0.5</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>11.5</v>
       </c>
       <c r="J15" s="7">
@@ -1759,7 +2461,7 @@
       <c r="K15" s="6">
         <v>9.5</v>
       </c>
-      <c r="L15" s="21">
+      <c r="L15" s="20">
         <v>10</v>
       </c>
       <c r="M15" s="6">
@@ -1768,22 +2470,22 @@
       <c r="N15" s="6">
         <v>7.5</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="Q15" s="29">
         <v>12</v>
       </c>
-      <c r="R15" s="29">
+      <c r="R15" s="28">
         <v>52</v>
       </c>
-      <c r="S15" s="29" t="s">
+      <c r="S15" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="T15" s="27">
+      <c r="T15" s="26">
         <v>18.21</v>
       </c>
-      <c r="U15" s="27">
+      <c r="U15" s="26">
         <v>24.67</v>
       </c>
       <c r="X15" s="9" t="s">
@@ -1795,10 +2497,10 @@
       <c r="Z15" s="9">
         <v>10</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="30">
         <v>55.11</v>
       </c>
-      <c r="AB15" s="21">
+      <c r="AB15" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1818,7 +2520,7 @@
       <c r="H16" s="4">
         <v>0.75</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>13.25</v>
       </c>
       <c r="J16" s="7">
@@ -1827,7 +2529,7 @@
       <c r="K16" s="6">
         <v>11.25</v>
       </c>
-      <c r="L16" s="21">
+      <c r="L16" s="20">
         <v>14.25</v>
       </c>
       <c r="M16" s="6">
@@ -1845,10 +2547,10 @@
       <c r="Z16" s="9">
         <v>4</v>
       </c>
-      <c r="AA16" s="34">
+      <c r="AA16" s="30">
         <v>50.78</v>
       </c>
-      <c r="AB16" s="21">
+      <c r="AB16" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1868,22 +2570,22 @@
       <c r="H17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>17</v>
       </c>
-      <c r="J17" s="20">
+      <c r="J17" s="19">
         <v>15</v>
       </c>
-      <c r="K17" s="23">
+      <c r="K17" s="22">
         <v>15</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="23">
         <v>17</v>
       </c>
-      <c r="M17" s="23">
+      <c r="M17" s="22">
         <v>17</v>
       </c>
-      <c r="N17" s="23">
+      <c r="N17" s="22">
         <v>15</v>
       </c>
       <c r="X17" s="9" t="s">
@@ -1895,10 +2597,10 @@
       <c r="Z17" s="9">
         <v>4</v>
       </c>
-      <c r="AA17" s="34">
+      <c r="AA17" s="30">
         <v>32.659999999999997</v>
       </c>
-      <c r="AB17" s="21">
+      <c r="AB17" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1915,10 +2617,10 @@
       <c r="D18" s="7">
         <v>15.967000000000001</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="25" t="s">
         <v>41</v>
       </c>
       <c r="X18" s="9" t="s">
@@ -1930,10 +2632,10 @@
       <c r="Z18" s="9">
         <v>6</v>
       </c>
-      <c r="AA18" s="34">
+      <c r="AA18" s="30">
         <v>70.099999999999994</v>
       </c>
-      <c r="AB18" s="21">
+      <c r="AB18" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -1953,7 +2655,7 @@
       <c r="H19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="18">
+      <c r="I19" s="17">
         <v>5.6660000000000004</v>
       </c>
       <c r="J19" s="7">
@@ -1962,7 +2664,7 @@
       <c r="K19" s="6">
         <v>6.6665999999999999</v>
       </c>
-      <c r="L19" s="21">
+      <c r="L19" s="20">
         <v>7</v>
       </c>
       <c r="M19" s="6">
@@ -1980,15 +2682,15 @@
       <c r="Z19" s="9">
         <v>6</v>
       </c>
-      <c r="AA19" s="34">
+      <c r="AA19" s="30">
         <v>40.44</v>
       </c>
-      <c r="AB19" s="21">
+      <c r="AB19" s="20">
         <v>103.42</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -2009,7 +2711,7 @@
       <c r="K20" s="6">
         <v>5.9553000000000003</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L20" s="21">
         <v>3.4058000000000002</v>
       </c>
       <c r="M20" s="6">
@@ -2027,10 +2729,10 @@
       <c r="Z20" s="9">
         <v>7</v>
       </c>
-      <c r="AA20" s="34">
+      <c r="AA20" s="30">
         <v>63.88</v>
       </c>
-      <c r="AB20" s="21">
+      <c r="AB20" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2050,7 +2752,7 @@
       <c r="H21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>1</v>
       </c>
       <c r="J21" s="7">
@@ -2059,7 +2761,7 @@
       <c r="K21" s="6">
         <v>1</v>
       </c>
-      <c r="L21" s="21">
+      <c r="L21" s="20">
         <v>3</v>
       </c>
       <c r="M21" s="6">
@@ -2077,10 +2779,10 @@
       <c r="Z21" s="9">
         <v>7</v>
       </c>
-      <c r="AA21" s="34">
+      <c r="AA21" s="30">
         <v>54.13</v>
       </c>
-      <c r="AB21" s="21">
+      <c r="AB21" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2100,7 +2802,7 @@
       <c r="H22" s="4">
         <v>0.25</v>
       </c>
-      <c r="I22" s="18">
+      <c r="I22" s="17">
         <v>4</v>
       </c>
       <c r="J22" s="7">
@@ -2109,7 +2811,7 @@
       <c r="K22" s="6">
         <v>1.5</v>
       </c>
-      <c r="L22" s="21">
+      <c r="L22" s="20">
         <v>4.25</v>
       </c>
       <c r="M22" s="6">
@@ -2127,10 +2829,10 @@
       <c r="Z22" s="9">
         <v>8</v>
       </c>
-      <c r="AA22" s="34">
+      <c r="AA22" s="30">
         <v>72.23</v>
       </c>
-      <c r="AB22" s="21">
+      <c r="AB22" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2150,7 +2852,7 @@
       <c r="H23" s="4">
         <v>0.5</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <v>5.5</v>
       </c>
       <c r="J23" s="7">
@@ -2159,7 +2861,7 @@
       <c r="K23" s="6">
         <v>5.5</v>
       </c>
-      <c r="L23" s="21">
+      <c r="L23" s="20">
         <v>7</v>
       </c>
       <c r="M23" s="6">
@@ -2177,10 +2879,10 @@
       <c r="Z23" s="9">
         <v>8</v>
       </c>
-      <c r="AA23" s="34">
+      <c r="AA23" s="30">
         <v>61.6</v>
       </c>
-      <c r="AB23" s="21">
+      <c r="AB23" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2200,7 +2902,7 @@
       <c r="H24" s="4">
         <v>0.75</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <v>7.75</v>
       </c>
       <c r="J24" s="7">
@@ -2209,7 +2911,7 @@
       <c r="K24" s="6">
         <v>11</v>
       </c>
-      <c r="L24" s="21">
+      <c r="L24" s="20">
         <v>9.75</v>
       </c>
       <c r="M24" s="6">
@@ -2227,10 +2929,10 @@
       <c r="Z24" s="9">
         <v>10</v>
       </c>
-      <c r="AA24" s="34">
+      <c r="AA24" s="30">
         <v>89.26</v>
       </c>
-      <c r="AB24" s="21">
+      <c r="AB24" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2250,22 +2952,22 @@
       <c r="H25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>10</v>
       </c>
-      <c r="J25" s="20">
+      <c r="J25" s="19">
         <v>14</v>
       </c>
-      <c r="K25" s="23">
+      <c r="K25" s="22">
         <v>15</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="23">
         <v>11</v>
       </c>
-      <c r="M25" s="23">
+      <c r="M25" s="22">
         <v>14</v>
       </c>
-      <c r="N25" s="23">
+      <c r="N25" s="22">
         <v>11</v>
       </c>
       <c r="X25" s="9" t="s">
@@ -2277,10 +2979,10 @@
       <c r="Z25" s="9">
         <v>10</v>
       </c>
-      <c r="AA25" s="34">
+      <c r="AA25" s="30">
         <v>68.349999999999994</v>
       </c>
-      <c r="AB25" s="21">
+      <c r="AB25" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2297,10 +2999,10 @@
       <c r="D26" s="7">
         <v>17.690000000000001</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="25" t="s">
         <v>42</v>
       </c>
       <c r="X26" s="9" t="s">
@@ -2312,10 +3014,10 @@
       <c r="Z26" s="9">
         <v>5</v>
       </c>
-      <c r="AA26" s="34">
+      <c r="AA26" s="30">
         <v>57.24</v>
       </c>
-      <c r="AB26" s="21">
+      <c r="AB26" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2335,7 +3037,7 @@
       <c r="H27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="18">
+      <c r="I27" s="17">
         <v>7.6660000000000004</v>
       </c>
       <c r="J27" s="7">
@@ -2344,7 +3046,7 @@
       <c r="K27" s="6">
         <v>7.5</v>
       </c>
-      <c r="L27" s="21">
+      <c r="L27" s="20">
         <v>6.1660000000000004</v>
       </c>
       <c r="M27" s="6">
@@ -2362,10 +3064,10 @@
       <c r="Z27" s="9">
         <v>5</v>
       </c>
-      <c r="AA27" s="34">
+      <c r="AA27" s="30">
         <v>37.43</v>
       </c>
-      <c r="AB27" s="21">
+      <c r="AB27" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2382,7 +3084,7 @@
       <c r="K28" s="6">
         <v>3.0819999999999999</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="21">
         <v>2.5619999999999998</v>
       </c>
       <c r="M28" s="6">
@@ -2400,24 +3102,24 @@
       <c r="Z28" s="9">
         <v>4</v>
       </c>
-      <c r="AA28" s="34">
+      <c r="AA28" s="30">
         <v>53.8</v>
       </c>
-      <c r="AB28" s="21">
+      <c r="AB28" s="20">
         <v>103.42</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <v>4</v>
       </c>
       <c r="J29" s="7">
@@ -2426,7 +3128,7 @@
       <c r="K29" s="6">
         <v>5</v>
       </c>
-      <c r="L29" s="21">
+      <c r="L29" s="20">
         <v>4</v>
       </c>
       <c r="M29" s="6">
@@ -2444,10 +3146,10 @@
       <c r="Z29" s="9">
         <v>4</v>
       </c>
-      <c r="AA29" s="34">
+      <c r="AA29" s="30">
         <v>34.72</v>
       </c>
-      <c r="AB29" s="21">
+      <c r="AB29" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2455,7 +3157,7 @@
       <c r="H30" s="4">
         <v>0.25</v>
       </c>
-      <c r="I30" s="18">
+      <c r="I30" s="17">
         <v>4.25</v>
       </c>
       <c r="J30" s="7">
@@ -2464,7 +3166,7 @@
       <c r="K30" s="6">
         <v>5.25</v>
       </c>
-      <c r="L30" s="21">
+      <c r="L30" s="20">
         <v>5</v>
       </c>
       <c r="M30" s="6">
@@ -2482,22 +3184,22 @@
       <c r="Z30" s="9">
         <v>5</v>
       </c>
-      <c r="AA30" s="34">
+      <c r="AA30" s="30">
         <v>37.99</v>
       </c>
-      <c r="AB30" s="21">
+      <c r="AB30" s="20">
         <v>103.42</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="33"/>
+      <c r="D31" s="38"/>
       <c r="H31" s="4">
         <v>0.5</v>
       </c>
-      <c r="I31" s="18">
+      <c r="I31" s="17">
         <v>7</v>
       </c>
       <c r="J31" s="7">
@@ -2506,7 +3208,7 @@
       <c r="K31" s="6">
         <v>6.5</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="20">
         <v>5</v>
       </c>
       <c r="M31" s="6">
@@ -2524,10 +3226,10 @@
       <c r="Z31" s="9">
         <v>5</v>
       </c>
-      <c r="AA31" s="34">
+      <c r="AA31" s="30">
         <v>34.270000000000003</v>
       </c>
-      <c r="AB31" s="21">
+      <c r="AB31" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2547,7 +3249,7 @@
       <c r="H32" s="4">
         <v>0.75</v>
       </c>
-      <c r="I32" s="18">
+      <c r="I32" s="17">
         <v>9</v>
       </c>
       <c r="J32" s="7">
@@ -2556,7 +3258,7 @@
       <c r="K32" s="6">
         <v>8.5</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="20">
         <v>6.5</v>
       </c>
       <c r="M32" s="6">
@@ -2574,10 +3276,10 @@
       <c r="Z32" s="9">
         <v>4</v>
       </c>
-      <c r="AA32" s="34">
+      <c r="AA32" s="30">
         <v>37.729999999999997</v>
       </c>
-      <c r="AB32" s="21">
+      <c r="AB32" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2600,22 +3302,22 @@
       <c r="H33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>15</v>
       </c>
-      <c r="J33" s="20">
+      <c r="J33" s="19">
         <v>11</v>
       </c>
-      <c r="K33" s="23">
+      <c r="K33" s="22">
         <v>13</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="23">
         <v>11</v>
       </c>
-      <c r="M33" s="23">
+      <c r="M33" s="22">
         <v>19</v>
       </c>
-      <c r="N33" s="23">
+      <c r="N33" s="22">
         <v>17</v>
       </c>
       <c r="X33" s="9" t="s">
@@ -2627,10 +3329,10 @@
       <c r="Z33" s="9">
         <v>4</v>
       </c>
-      <c r="AA33" s="34">
+      <c r="AA33" s="30">
         <v>25.82</v>
       </c>
-      <c r="AB33" s="21">
+      <c r="AB33" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2650,10 +3352,10 @@
         <f t="shared" si="2"/>
         <v>13.94</v>
       </c>
-      <c r="H34" s="16" t="s">
+      <c r="H34" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I34" s="26" t="s">
+      <c r="I34" s="25" t="s">
         <v>43</v>
       </c>
       <c r="X34" s="9" t="s">
@@ -2665,10 +3367,10 @@
       <c r="Z34" s="9">
         <v>7</v>
       </c>
-      <c r="AA34" s="34">
+      <c r="AA34" s="30">
         <v>53.12</v>
       </c>
-      <c r="AB34" s="21">
+      <c r="AB34" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2691,7 +3393,7 @@
       <c r="H35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="18">
+      <c r="I35" s="17">
         <v>13</v>
       </c>
       <c r="J35" s="7">
@@ -2700,7 +3402,7 @@
       <c r="K35" s="6">
         <v>9</v>
       </c>
-      <c r="L35" s="21">
+      <c r="L35" s="20">
         <v>9.1666000000000007</v>
       </c>
       <c r="M35" s="6">
@@ -2718,10 +3420,10 @@
       <c r="Z35" s="9">
         <v>7</v>
       </c>
-      <c r="AA35" s="34">
+      <c r="AA35" s="30">
         <v>45.79</v>
       </c>
-      <c r="AB35" s="21">
+      <c r="AB35" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2753,7 +3455,7 @@
       <c r="K36" s="6">
         <v>3.8980000000000001</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="21">
         <v>4.6219999999999999</v>
       </c>
       <c r="M36" s="6">
@@ -2771,10 +3473,10 @@
       <c r="Z36" s="9">
         <v>4</v>
       </c>
-      <c r="AA36" s="34">
+      <c r="AA36" s="30">
         <v>45.09</v>
       </c>
-      <c r="AB36" s="21">
+      <c r="AB36" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2797,7 +3499,7 @@
       <c r="H37" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I37" s="18">
+      <c r="I37" s="17">
         <v>9</v>
       </c>
       <c r="J37" s="7">
@@ -2806,7 +3508,7 @@
       <c r="K37" s="6">
         <v>2</v>
       </c>
-      <c r="L37" s="21">
+      <c r="L37" s="20">
         <v>3</v>
       </c>
       <c r="M37" s="6">
@@ -2824,10 +3526,10 @@
       <c r="Z37" s="9">
         <v>4</v>
       </c>
-      <c r="AA37" s="34">
+      <c r="AA37" s="30">
         <v>27.68</v>
       </c>
-      <c r="AB37" s="21">
+      <c r="AB37" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2850,7 +3552,7 @@
       <c r="H38" s="4">
         <v>0.25</v>
       </c>
-      <c r="I38" s="18">
+      <c r="I38" s="17">
         <v>11.25</v>
       </c>
       <c r="J38" s="7">
@@ -2859,7 +3561,7 @@
       <c r="K38" s="6">
         <v>8.25</v>
       </c>
-      <c r="L38" s="21">
+      <c r="L38" s="20">
         <v>6.5</v>
       </c>
       <c r="M38" s="6">
@@ -2877,10 +3579,10 @@
       <c r="Z38" s="9">
         <v>6</v>
       </c>
-      <c r="AA38" s="34">
+      <c r="AA38" s="30">
         <v>61</v>
       </c>
-      <c r="AB38" s="21">
+      <c r="AB38" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2903,7 +3605,7 @@
       <c r="H39" s="4">
         <v>0.5</v>
       </c>
-      <c r="I39" s="18">
+      <c r="I39" s="17">
         <v>13</v>
       </c>
       <c r="J39" s="7">
@@ -2912,7 +3614,7 @@
       <c r="K39" s="6">
         <v>9.5</v>
       </c>
-      <c r="L39" s="21">
+      <c r="L39" s="20">
         <v>8.5</v>
       </c>
       <c r="M39" s="6">
@@ -2930,10 +3632,10 @@
       <c r="Z39" s="9">
         <v>6</v>
       </c>
-      <c r="AA39" s="34">
+      <c r="AA39" s="30">
         <v>48</v>
       </c>
-      <c r="AB39" s="21">
+      <c r="AB39" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -2956,7 +3658,7 @@
       <c r="H40" s="4">
         <v>0.75</v>
       </c>
-      <c r="I40" s="18">
+      <c r="I40" s="17">
         <v>14.75</v>
       </c>
       <c r="J40" s="7">
@@ -2965,7 +3667,7 @@
       <c r="K40" s="6">
         <v>11.5</v>
       </c>
-      <c r="L40" s="21">
+      <c r="L40" s="20">
         <v>12.75</v>
       </c>
       <c r="M40" s="6">
@@ -2983,10 +3685,10 @@
       <c r="Z40" s="9">
         <v>5</v>
       </c>
-      <c r="AA40" s="34">
+      <c r="AA40" s="30">
         <v>52.94</v>
       </c>
-      <c r="AB40" s="21">
+      <c r="AB40" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -3009,22 +3711,22 @@
       <c r="H41" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="18">
         <v>17</v>
       </c>
-      <c r="J41" s="20">
+      <c r="J41" s="19">
         <v>15</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K41" s="22">
         <v>13</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="23">
         <v>15</v>
       </c>
-      <c r="M41" s="23">
+      <c r="M41" s="22">
         <v>17</v>
       </c>
-      <c r="N41" s="23">
+      <c r="N41" s="22">
         <v>15</v>
       </c>
       <c r="X41" s="9" t="s">
@@ -3036,10 +3738,10 @@
       <c r="Z41" s="9">
         <v>5</v>
       </c>
-      <c r="AA41" s="34">
+      <c r="AA41" s="30">
         <v>41.48</v>
       </c>
-      <c r="AB41" s="21">
+      <c r="AB41" s="20">
         <v>103.42</v>
       </c>
     </row>
@@ -3062,7 +3764,7 @@
       <c r="H42" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="I42" s="26" t="s">
+      <c r="I42" s="25" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3085,7 +3787,7 @@
       <c r="H43" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I43" s="18">
+      <c r="I43" s="17">
         <v>9.5</v>
       </c>
       <c r="J43" s="7">
@@ -3094,7 +3796,7 @@
       <c r="K43" s="6">
         <v>9</v>
       </c>
-      <c r="L43" s="21">
+      <c r="L43" s="20">
         <v>10.833299999999999</v>
       </c>
       <c r="M43" s="6">
@@ -3132,7 +3834,7 @@
       <c r="K44" s="6">
         <v>4</v>
       </c>
-      <c r="L44" s="22">
+      <c r="L44" s="21">
         <v>5.3070000000000004</v>
       </c>
       <c r="M44" s="6">
@@ -3146,7 +3848,7 @@
       <c r="H45" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I45" s="18">
+      <c r="I45" s="17">
         <v>5</v>
       </c>
       <c r="J45" s="7">
@@ -3155,7 +3857,7 @@
       <c r="K45" s="6">
         <v>5</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="20">
         <v>4</v>
       </c>
       <c r="M45" s="6">
@@ -3166,14 +3868,14 @@
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="D46" s="33"/>
+      <c r="D46" s="38"/>
       <c r="H46" s="4">
         <v>0.25</v>
       </c>
-      <c r="I46" s="18">
+      <c r="I46" s="17">
         <v>7.25</v>
       </c>
       <c r="J46" s="7">
@@ -3182,7 +3884,7 @@
       <c r="K46" s="6">
         <v>5.5</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="20">
         <v>6.5</v>
       </c>
       <c r="M46" s="6">
@@ -3208,7 +3910,7 @@
       <c r="H47" s="4">
         <v>0.5</v>
       </c>
-      <c r="I47" s="18">
+      <c r="I47" s="17">
         <v>9.5</v>
       </c>
       <c r="J47" s="7">
@@ -3217,7 +3919,7 @@
       <c r="K47" s="6">
         <v>9</v>
       </c>
-      <c r="L47" s="21">
+      <c r="L47" s="20">
         <v>12</v>
       </c>
       <c r="M47" s="6">
@@ -3246,7 +3948,7 @@
       <c r="H48" s="4">
         <v>0.75</v>
       </c>
-      <c r="I48" s="18">
+      <c r="I48" s="17">
         <v>12.5</v>
       </c>
       <c r="J48" s="7">
@@ -3255,7 +3957,7 @@
       <c r="K48" s="6">
         <v>11</v>
       </c>
-      <c r="L48" s="21">
+      <c r="L48" s="20">
         <v>14.5</v>
       </c>
       <c r="M48" s="6">
@@ -3284,22 +3986,22 @@
       <c r="H49" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I49" s="18">
         <v>13</v>
       </c>
-      <c r="J49" s="20">
+      <c r="J49" s="19">
         <v>13</v>
       </c>
-      <c r="K49" s="23">
+      <c r="K49" s="22">
         <v>15</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="23">
         <v>17</v>
       </c>
-      <c r="M49" s="23">
+      <c r="M49" s="22">
         <v>17</v>
       </c>
-      <c r="N49" s="23">
+      <c r="N49" s="22">
         <v>13</v>
       </c>
     </row>
@@ -3498,10 +4200,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{829E6E1F-6FDE-4192-ABFB-F217CC23208A}">
-  <dimension ref="C3:D14"/>
+  <dimension ref="C3:D12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F4"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3588,11 +4290,566 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="15"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{950FB36C-AC73-488C-8D68-F0BB55EE1A99}">
+  <dimension ref="B6:N19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="35" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="29">
+        <v>1</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="28">
+        <v>52</v>
+      </c>
+      <c r="E7" s="28">
+        <v>1669</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1786</v>
+      </c>
+      <c r="G7" s="28">
+        <f t="shared" ref="G7:G18" si="0">F7-E7</f>
+        <v>117</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="29">
+        <v>1</v>
+      </c>
+      <c r="K7" s="28">
+        <v>52</v>
+      </c>
+      <c r="L7" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" s="26">
+        <v>13.25</v>
+      </c>
+      <c r="N7" s="26">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="29">
+        <v>2</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="28">
+        <v>40</v>
+      </c>
+      <c r="E8" s="28">
+        <v>1211</v>
+      </c>
+      <c r="F8" s="28">
+        <v>2148</v>
+      </c>
+      <c r="G8" s="28">
+        <f t="shared" si="0"/>
+        <v>937</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="29">
+        <v>2</v>
+      </c>
+      <c r="K8" s="28">
+        <v>40</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" s="26">
+        <v>16.13</v>
+      </c>
+      <c r="N8" s="26">
+        <v>20.37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="29">
+        <v>3</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="28">
+        <v>35</v>
+      </c>
+      <c r="E9" s="28">
+        <v>1812</v>
+      </c>
+      <c r="F9" s="28">
+        <v>2062</v>
+      </c>
+      <c r="G9" s="28">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="29">
+        <v>3</v>
+      </c>
+      <c r="K9" s="28">
+        <v>35</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="26">
+        <v>21.89</v>
+      </c>
+      <c r="N9" s="26">
+        <v>28.68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="29">
+        <v>4</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="28">
+        <v>44</v>
+      </c>
+      <c r="E10" s="28">
+        <v>1562</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1770</v>
+      </c>
+      <c r="G10" s="28">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="J10" s="29">
+        <v>4</v>
+      </c>
+      <c r="K10" s="28">
+        <v>44</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="26">
+        <v>15.43</v>
+      </c>
+      <c r="N10" s="26">
+        <v>28.79</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="29">
+        <v>5</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="28">
+        <v>21</v>
+      </c>
+      <c r="E11" s="28">
+        <v>966</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1666</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="29">
+        <v>5</v>
+      </c>
+      <c r="K11" s="28">
+        <v>21</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" s="26">
+        <v>12.59</v>
+      </c>
+      <c r="N11" s="26">
+        <v>13.48</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="29">
+        <v>6</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="28">
+        <v>21</v>
+      </c>
+      <c r="E12" s="28">
+        <v>991</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1862</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="0"/>
+        <v>871</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="29">
+        <v>6</v>
+      </c>
+      <c r="K12" s="28">
+        <v>21</v>
+      </c>
+      <c r="L12" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="26">
+        <v>13.62</v>
+      </c>
+      <c r="N12" s="26">
+        <v>15.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="29">
+        <v>7</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="28">
+        <v>51</v>
+      </c>
+      <c r="E13" s="28">
+        <v>1924</v>
+      </c>
+      <c r="F13" s="28">
+        <v>1752</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="0"/>
+        <v>-172</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="29">
+        <v>7</v>
+      </c>
+      <c r="K13" s="28">
+        <v>51</v>
+      </c>
+      <c r="L13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="26">
+        <v>13.65</v>
+      </c>
+      <c r="N13" s="26">
+        <v>26.13</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="29">
+        <v>8</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="28">
+        <v>51</v>
+      </c>
+      <c r="E14" s="28">
+        <v>1203</v>
+      </c>
+      <c r="F14" s="28">
+        <v>1816</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="0"/>
+        <v>613</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="29">
+        <v>8</v>
+      </c>
+      <c r="K14" s="28">
+        <v>51</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="26">
+        <v>18.59</v>
+      </c>
+      <c r="N14" s="26">
+        <v>24.31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="29">
+        <v>9</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="28">
+        <v>14</v>
+      </c>
+      <c r="E15" s="28">
+        <v>993</v>
+      </c>
+      <c r="F15" s="28">
+        <v>1788</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="0"/>
+        <v>795</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="29">
+        <v>9</v>
+      </c>
+      <c r="K15" s="28">
+        <v>14</v>
+      </c>
+      <c r="L15" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="26">
+        <v>16.13</v>
+      </c>
+      <c r="N15" s="26">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="29">
+        <v>10</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="28">
+        <v>23</v>
+      </c>
+      <c r="E16" s="28">
+        <v>1126</v>
+      </c>
+      <c r="F16" s="28">
+        <v>1714</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="29">
+        <v>10</v>
+      </c>
+      <c r="K16" s="28">
+        <v>23</v>
+      </c>
+      <c r="L16" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="26">
+        <v>12.13</v>
+      </c>
+      <c r="N16" s="26">
+        <v>21.83</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="29">
+        <v>11</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="28">
+        <v>23</v>
+      </c>
+      <c r="E17" s="28">
+        <v>1191</v>
+      </c>
+      <c r="F17" s="28">
+        <v>2078</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="0"/>
+        <v>887</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="29">
+        <v>11</v>
+      </c>
+      <c r="K17" s="28">
+        <v>23</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="26">
+        <v>15.48</v>
+      </c>
+      <c r="N17" s="26">
+        <v>18.21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="31">
+        <v>12</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="32">
+        <v>52</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1853</v>
+      </c>
+      <c r="F18" s="32">
+        <v>1952</v>
+      </c>
+      <c r="G18" s="32">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" s="31">
+        <v>12</v>
+      </c>
+      <c r="K18" s="32">
+        <v>52</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="33">
+        <v>18.21</v>
+      </c>
+      <c r="N18" s="33">
+        <v>24.67</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32">
+        <f>SUBTOTAL(109,Tabelle33[actions_drea])</f>
+        <v>16501</v>
+      </c>
+      <c r="F19" s="32">
+        <f>SUBTOTAL(109,Tabelle33[actions_normal])</f>
+        <v>22394</v>
+      </c>
+      <c r="G19" s="32"/>
+      <c r="I19" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="39"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="42">
+        <f>SUBTOTAL(109,Tabelle1[time normal])</f>
+        <v>187.1</v>
+      </c>
+      <c r="N19" s="41">
+        <f>SUBTOTAL(109,Tabelle1[time DREA])</f>
+        <v>260.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.65" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>